--- a/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,97</t>
+          <t>7,33; 10,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,7</t>
+          <t>9,33; 13,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,59</t>
+          <t>4,97; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,14</t>
+          <t>5,39; 8,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,4</t>
+          <t>8,1; 11,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,05</t>
+          <t>4,93; 8,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 8,95</t>
+          <t>6,68; 8,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,73</t>
+          <t>9,27; 11,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,85</t>
+          <t>5,42; 7,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 20,99</t>
+          <t>17,07; 20,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 21,49</t>
+          <t>17,89; 21,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 17,12</t>
+          <t>13,8; 17,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 17,06</t>
+          <t>13,57; 16,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 17,81</t>
+          <t>14,25; 17,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 17,76</t>
+          <t>14,23; 17,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 18,63</t>
+          <t>15,94; 18,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,62; 19,25</t>
+          <t>16,69; 19,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 16,93</t>
+          <t>14,61; 16,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,58</t>
+          <t>15,03; 21,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 26,09</t>
+          <t>18,11; 26,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 19,22</t>
+          <t>12,68; 19,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,64</t>
+          <t>15,44; 22,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,94</t>
+          <t>12,1; 19,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,31</t>
+          <t>14,53; 21,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 20,98</t>
+          <t>16,11; 20,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,22; 21,61</t>
+          <t>16,19; 21,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,44</t>
+          <t>14,6; 19,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 17,12</t>
+          <t>14,44; 16,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 18,96</t>
+          <t>16,26; 18,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,84</t>
+          <t>12,19; 14,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,5</t>
+          <t>11,38; 13,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 14,64</t>
+          <t>12,28; 14,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,78</t>
+          <t>12,31; 14,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 14,92</t>
+          <t>13,23; 14,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,62; 16,42</t>
+          <t>14,67; 16,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 14,38</t>
+          <t>12,7; 14,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,85</t>
+          <t>7,3; 10,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,8</t>
+          <t>9,42; 13,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,72</t>
+          <t>5,02; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 19,09</t>
+          <t>12,65; 18,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,01</t>
+          <t>5,5; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,25</t>
+          <t>8,05; 11,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,09</t>
+          <t>4,94; 8,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,04</t>
+          <t>7,81; 11,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 8,95</t>
+          <t>6,71; 8,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 11,86</t>
+          <t>9,11; 11,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,83</t>
+          <t>5,37; 7,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,42</t>
+          <t>10,28; 13,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 20,94</t>
+          <t>17,33; 21,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 21,59</t>
+          <t>18,0; 21,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 17,17</t>
+          <t>13,98; 17,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,15; 20,6</t>
+          <t>16,04; 20,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 16,9</t>
+          <t>13,63; 17,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,72</t>
+          <t>14,24; 17,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 17,5</t>
+          <t>14,36; 17,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,18</t>
+          <t>12,22; 16,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,94; 18,55</t>
+          <t>15,78; 18,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 19,26</t>
+          <t>16,73; 19,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,61; 16,96</t>
+          <t>14,53; 17,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,76</t>
+          <t>14,64; 17,8</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,88</t>
+          <t>15,33; 22,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 26,06</t>
+          <t>18,35; 26,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,68; 19,39</t>
+          <t>12,76; 19,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 17,33</t>
+          <t>11,39; 17,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 22,49</t>
+          <t>15,61; 22,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 19,0</t>
+          <t>12,33; 19,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 21,48</t>
+          <t>14,62; 21,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 16,6</t>
+          <t>11,48; 16,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,9</t>
+          <t>16,13; 21,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,54</t>
+          <t>16,25; 21,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,17</t>
+          <t>14,62; 19,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 15,92</t>
+          <t>12,18; 15,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,98</t>
+          <t>14,45; 17,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,92</t>
+          <t>16,14; 18,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 14,75</t>
+          <t>12,31; 14,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,51; 18,61</t>
+          <t>15,46; 18,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,69</t>
+          <t>11,29; 13,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 14,73</t>
+          <t>12,24; 14,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 14,77</t>
+          <t>12,29; 14,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 14,3</t>
+          <t>11,79; 14,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 14,96</t>
+          <t>13,26; 14,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 16,42</t>
+          <t>14,65; 16,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 14,37</t>
+          <t>12,68; 14,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,96; 15,95</t>
+          <t>13,85; 15,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,84</t>
+          <t>12,08; 18,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,03</t>
+          <t>7,82; 10,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 13,39</t>
+          <t>10,08; 13,08</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,33</t>
+          <t>10,94; 18,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 16,07</t>
+          <t>9,64; 15,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 17,8</t>
+          <t>11,63; 16,3</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,78%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 17,76</t>
+          <t>11,19; 17,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,34</t>
+          <t>11,25; 16,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,94</t>
+          <t>11,96; 15,67</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 18,49</t>
+          <t>11,81; 17,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 14,46</t>
+          <t>10,14; 13,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 15,94</t>
+          <t>11,86; 15,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,95</t>
+          <t>7,48; 10,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,55</t>
+          <t>9,26; 13,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,72</t>
+          <t>4,8; 8,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,2</t>
+          <t>12,14; 18,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,13</t>
+          <t>5,55; 8,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 11,32</t>
+          <t>7,95; 11,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,01</t>
+          <t>4,92; 8,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 10,94</t>
+          <t>7,62; 10,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,98</t>
+          <t>6,7; 8,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 11,58</t>
+          <t>9,0; 11,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,85</t>
+          <t>5,35; 7,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 13,08</t>
+          <t>10,17; 13,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 21,01</t>
+          <t>17,08; 20,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 21,61</t>
+          <t>17,99; 21,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 17,07</t>
+          <t>13,81; 17,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,72</t>
+          <t>11,38; 18,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 17,14</t>
+          <t>13,65; 17,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,71</t>
+          <t>14,17; 17,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 17,75</t>
+          <t>14,31; 17,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 15,01</t>
+          <t>9,28; 15,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 18,59</t>
+          <t>15,87; 18,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,18</t>
+          <t>16,65; 19,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 17,02</t>
+          <t>14,6; 16,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 16,3</t>
+          <t>11,41; 16,43</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 22,37</t>
+          <t>14,72; 21,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 26,74</t>
+          <t>18,6; 26,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 19,31</t>
+          <t>12,32; 19,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 17,48</t>
+          <t>11,4; 17,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 22,42</t>
+          <t>15,03; 22,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 19,04</t>
+          <t>12,04; 19,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 21,36</t>
+          <t>14,79; 21,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,12</t>
+          <t>11,2; 16,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,13; 21,13</t>
+          <t>16,08; 21,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 21,75</t>
+          <t>16,11; 21,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,25</t>
+          <t>14,57; 19,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 15,67</t>
+          <t>11,9; 15,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,05</t>
+          <t>14,4; 16,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 18,93</t>
+          <t>16,36; 19,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 14,8</t>
+          <t>12,37; 14,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 17,18</t>
+          <t>12,2; 17,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 13,64</t>
+          <t>11,29; 13,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 14,62</t>
+          <t>12,3; 14,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 14,7</t>
+          <t>12,38; 14,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 13,71</t>
+          <t>10,12; 13,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 14,89</t>
+          <t>13,16; 14,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 16,43</t>
+          <t>14,76; 16,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 14,34</t>
+          <t>12,83; 14,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,07</t>
+          <t>12,18; 15,04</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna quemadura solar en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>92847</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>109971</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49184</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>77197</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>88055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>126604</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62520</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>69357</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>180903</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>236576</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>111704</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>146554</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>76928; 111165</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89517; 130676</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35786; 63236</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>62381; 93541</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>72881; 107692</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>105109; 149384</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48416; 79970</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57527; 82715</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>156931; 207312</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>205853; 263920</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>92694; 133986</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>129088; 168087</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>320712</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>382811</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>317703</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>364936</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>241086</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>277698</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>315761</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>290402</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>561798</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>660508</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>633464</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>655339</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>288578; 353554</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>350895; 422342</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>284670; 358126</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>259910; 428914</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>216055; 274002</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>246891; 310948</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>282961; 348839</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>207381; 339181</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>519328; 602998</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>614769; 710319</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>589580; 680466</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>515852; 742708</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99907</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>105123</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>85369</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>89884</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>89801</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69331</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>97161</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>90266</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>189708</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>174455</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>182531</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>180150</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81031; 118314</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>88384; 125024</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>66683; 105017</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73694; 110747</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>71437; 105462</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>54871; 86831</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80269; 117779</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>74000; 109096</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>165005; 216973</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>149991; 200780</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>157960; 210572</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>155510; 205863</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>513467</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>597905</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>452256</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>532017</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>418942</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>473634</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>475442</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>450026</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>932409</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1071539</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>927699</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>982043</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>470835; 553488</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>554891; 645801</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>414105; 494647</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>420411; 594206</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>380482; 456084</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>432906; 517701</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>434059; 516821</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>369431; 495681</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>873613; 990516</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1019911; 1140073</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>879125; 987222</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>864370; 1067165</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
